--- a/CompetitionTask1/CompetitionTask1/ExternalFiles/ShareSkills_TestData.xlsx
+++ b/CompetitionTask1/CompetitionTask1/ExternalFiles/ShareSkills_TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RAM REDDY\Desktop\InternshipProjects\CompetitionTask1\CompetitionTask1\ExternalFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RAM REDDY\First Project2022\September2022\CompetitionTask1\CompetitionTask1\ExternalFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42DB0DBF-CC42-481D-953D-BD7DC6D9E869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A70BBA3-CBAD-4B04-A2A1-330D62FC4664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4365" yWindow="3045" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Skills" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="55">
   <si>
     <t>Title</t>
   </si>
@@ -191,6 +191,18 @@
   </si>
   <si>
     <t>C:\Users\RAM REDDY\First Project2022\September2022\Mars_ShareSkills\AutoIT\WorkSample.exe</t>
+  </si>
+  <si>
+    <t>1/27/2023</t>
+  </si>
+  <si>
+    <t>1/30/2023</t>
+  </si>
+  <si>
+    <t>2/25/2023</t>
+  </si>
+  <si>
+    <t>2/30/2023</t>
   </si>
 </sst>
 </file>
@@ -560,7 +572,7 @@
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,11 +677,11 @@
       <c r="H2" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="1">
-        <v>44920</v>
-      </c>
-      <c r="J2" s="1">
-        <v>44951</v>
+      <c r="I2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="K2" t="s">
         <v>15</v>
@@ -718,11 +730,11 @@
       <c r="H3" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="1">
-        <v>44922</v>
-      </c>
-      <c r="J3" s="1">
-        <v>44953</v>
+      <c r="I3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="K3" t="s">
         <v>15</v>
